--- a/SimulatorUser/ExportData/Test 1296 User 4.xlsx
+++ b/SimulatorUser/ExportData/Test 1296 User 4.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P26"/>
+  <dimension ref="B3:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,8 +1381,12 @@
       <c r="B26" s="5" t="n">
         <v>44228.22916666666</v>
       </c>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
+      <c r="C26" s="6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="E26" s="6" t="n">
         <v>3.107</v>
       </c>
@@ -1409,6 +1413,1066 @@
       </c>
       <c r="O26" s="6" t="n">
         <v>60.58729994444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="n">
+        <v>44228.23958333334</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>5.617</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>3.741733333333333</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="n">
+        <v>44228.25</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="n">
+        <v>44228.26041666666</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="n">
+        <v>44228.27083333334</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="n">
+        <v>44228.28125</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="n">
+        <v>44228.29166666666</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="n">
+        <v>44228.30208333334</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="n">
+        <v>44228.3125</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="n">
+        <v>44228.32291666666</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="n">
+        <v>44228.33333333334</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="n">
+        <v>44228.34375</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="n">
+        <v>44228.35416666666</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="n">
+        <v>44228.36458333334</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="n">
+        <v>44228.375</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="n">
+        <v>44228.38541666666</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="n">
+        <v>44228.39583333334</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="n">
+        <v>44228.40625</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="n">
+        <v>44228.41666666666</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="n">
+        <v>44228.42708333334</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="n">
+        <v>44228.4375</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="n">
+        <v>44228.44791666666</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="n">
+        <v>44228.45833333334</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="n">
+        <v>44228.46875</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="n">
+        <v>44228.47916666666</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="n">
+        <v>44228.48958333334</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="n">
+        <v>44228.5</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="n">
+        <v>44228.51041666666</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="n">
+        <v>44228.52083333334</v>
+      </c>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +2486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P26"/>
+  <dimension ref="B3:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,8 +3424,12 @@
       <c r="B26" s="5" t="n">
         <v>44228.22916666666</v>
       </c>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
+      <c r="C26" s="6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="E26" s="6" t="n">
         <v>0.777</v>
       </c>
@@ -2388,6 +3456,1066 @@
       </c>
       <c r="O26" s="6" t="n">
         <v>60.58729994444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="n">
+        <v>44228.23958333334</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0.9354333333333333</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="n">
+        <v>44228.25</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="n">
+        <v>44228.26041666666</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="n">
+        <v>44228.27083333334</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>61.39177261111107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="n">
+        <v>44228.28125</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="n">
+        <v>44228.29166666666</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="n">
+        <v>44228.30208333334</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="n">
+        <v>44228.3125</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="n">
+        <v>44228.32291666666</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="n">
+        <v>44228.33333333334</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="n">
+        <v>44228.34375</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="n">
+        <v>44228.35416666666</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="n">
+        <v>44228.36458333334</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="n">
+        <v>44228.375</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="n">
+        <v>44228.38541666666</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="n">
+        <v>44228.39583333334</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="n">
+        <v>44228.40625</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="n">
+        <v>44228.41666666666</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="n">
+        <v>44228.42708333334</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="n">
+        <v>44228.4375</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="n">
+        <v>44228.44791666666</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="n">
+        <v>44228.45833333334</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="n">
+        <v>44228.46875</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="n">
+        <v>44228.47916666666</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="n">
+        <v>44228.48958333334</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="n">
+        <v>44228.5</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="n">
+        <v>44228.51041666666</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="I53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="n">
+        <v>44228.52083333334</v>
+      </c>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
